--- a/third assignment/stoer_wagner.xlsx
+++ b/third assignment/stoer_wagner.xlsx
@@ -1,26 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davide/Sviluppo/Advanced Algorithm/third assignment/c#/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Advanced Algorithm\AdvancedAlgorithms-assignments\third assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{166A7F94-EE1D-8349-9BA0-E017B0178252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A674F2-31D5-4882-A832-4356F9F413F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16300" yWindow="-18640" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stoer_wagner" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>file</t>
   </si>
@@ -206,12 +221,33 @@
   </si>
   <si>
     <t>input_random_56_500</t>
+  </si>
+  <si>
+    <t>n^2*log(n)</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>choosen constant</t>
+  </si>
+  <si>
+    <t>n^2*log(n)*constant</t>
+  </si>
+  <si>
+    <t>Vertices</t>
+  </si>
+  <si>
+    <t>Media I</t>
+  </si>
+  <si>
+    <t>Time(ms)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -749,6 +785,1491 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>STOER AND WAGNER</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Measured Time (ms)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>stoer_wagner!$N$2:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>stoer_wagner!$O$2:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>5.2999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2455</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1937500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9537499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.64975</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.808250000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.074000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.528750000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.335999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>111.88074999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>155.83724999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>205.99275</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>266.15875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>343.73325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E20-4DE4-93B5-60CB3FB8F72A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>0.00051*n^2*log(n)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>stoer_wagner!$K$2:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>stoer_wagner!$L$2:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>5.1000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2654101191154522</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3072809529236173</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2646856957043697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2116857175417035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.970647197663947</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.941011911545225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.434337776421202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>113.69986559163252</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>158.9406510707835</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>212.32809529236175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>274.01052236014863</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>344.11867555284238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9E20-4DE4-93B5-60CB3FB8F72A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1204925728"/>
+        <c:axId val="1204926544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1204925728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="510"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number of vertices</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1204926544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1204926544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1204925728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr u="none"/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C87A064-4D46-484C-AC4D-1BCDCBD876A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="karger"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="M2">
+            <v>10</v>
+          </cell>
+          <cell r="N2">
+            <v>1.685E-2</v>
+          </cell>
+          <cell r="P2">
+            <v>10</v>
+          </cell>
+          <cell r="Q2">
+            <v>8.3000000000000004E-2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="M3">
+            <v>20</v>
+          </cell>
+          <cell r="N3">
+            <v>0.14843004699777929</v>
+          </cell>
+          <cell r="P3">
+            <v>20</v>
+          </cell>
+          <cell r="Q3">
+            <v>0.48499999999999999</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="M4">
+            <v>40</v>
+          </cell>
+          <cell r="N4">
+            <v>1.108552363592719</v>
+          </cell>
+          <cell r="P4">
+            <v>40</v>
+          </cell>
+          <cell r="Q4">
+            <v>2.3387500000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>60</v>
+          </cell>
+          <cell r="N5">
+            <v>3.410425009736505</v>
+          </cell>
+          <cell r="P5">
+            <v>60</v>
+          </cell>
+          <cell r="Q5">
+            <v>5.9280000000000008</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>80</v>
+          </cell>
+          <cell r="N6">
+            <v>7.4328925029050668</v>
+          </cell>
+          <cell r="P6">
+            <v>80</v>
+          </cell>
+          <cell r="Q6">
+            <v>11.525500000000001</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="M7">
+            <v>100</v>
+          </cell>
+          <cell r="N7">
+            <v>13.48</v>
+          </cell>
+          <cell r="P7">
+            <v>100</v>
+          </cell>
+          <cell r="Q7">
+            <v>18.749000000000002</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="M8">
+            <v>150</v>
+          </cell>
+          <cell r="N8">
+            <v>39.067330516605601</v>
+          </cell>
+          <cell r="P8">
+            <v>150</v>
+          </cell>
+          <cell r="Q8">
+            <v>49.036999999999999</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="M9">
+            <v>200</v>
+          </cell>
+          <cell r="N9">
+            <v>82.115801595367842</v>
+          </cell>
+          <cell r="P9">
+            <v>200</v>
+          </cell>
+          <cell r="Q9">
+            <v>94.117750000000001</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="M10">
+            <v>250</v>
+          </cell>
+          <cell r="N10">
+            <v>145.20944445433716</v>
+          </cell>
+          <cell r="P10">
+            <v>250</v>
+          </cell>
+          <cell r="Q10">
+            <v>155.63825</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="M11">
+            <v>300</v>
+          </cell>
+          <cell r="N11">
+            <v>230.50704957615113</v>
+          </cell>
+          <cell r="P11">
+            <v>300</v>
+          </cell>
+          <cell r="Q11">
+            <v>265.86759999999998</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="M12">
+            <v>350</v>
+          </cell>
+          <cell r="N12">
+            <v>339.87730238292903</v>
+          </cell>
+          <cell r="P12">
+            <v>350</v>
+          </cell>
+          <cell r="Q12">
+            <v>347.98166666666663</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="M13">
+            <v>400</v>
+          </cell>
+          <cell r="N13">
+            <v>474.97615039289377</v>
+          </cell>
+          <cell r="P13">
+            <v>400</v>
+          </cell>
+          <cell r="Q13">
+            <v>470.81074999999998</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="M14">
+            <v>450</v>
+          </cell>
+          <cell r="N14">
+            <v>637.29578138305965</v>
+          </cell>
+          <cell r="P14">
+            <v>450</v>
+          </cell>
+          <cell r="Q14">
+            <v>618.89699999999993</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="M15">
+            <v>500</v>
+          </cell>
+          <cell r="N15">
+            <v>828.19782897542325</v>
+          </cell>
+          <cell r="P15">
+            <v>500</v>
+          </cell>
+          <cell r="Q15">
+            <v>783.08850000000007</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
@@ -1045,20 +2566,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1077,8 +2605,32 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1097,8 +2649,37 @@
       <c r="F2">
         <v>16060</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <f>POWER(B2,2)*LOG10(B2)</f>
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <f>E2/G2</f>
+        <v>6.2E-4</v>
+      </c>
+      <c r="I2">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="J2">
+        <f>G2*$I$2</f>
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGEIF(B:B,K2,J:J)</f>
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGEIF(B:B,N2,E:E)</f>
+        <v>5.2999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1117,8 +2698,34 @@
       <c r="F3">
         <v>23484</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f t="shared" ref="G3:G57" si="0">POWER(B3,2)*LOG10(B3)</f>
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H57" si="1">E3/G3</f>
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J57" si="2">G3*$I$2</f>
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L15" si="3">AVERAGEIF(B:B,K3,J:J)</f>
+        <v>0.2654101191154522</v>
+      </c>
+      <c r="N3">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O15" si="4">AVERAGEIF(B:B,N3,E:E)</f>
+        <v>0.2455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1137,8 +2744,34 @@
       <c r="F4">
         <v>17005</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>5.8999999999999992E-4</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="K4">
+        <v>40</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>1.3072809529236173</v>
+      </c>
+      <c r="N4">
+        <v>40</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="4"/>
+        <v>1.1937500000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1157,8 +2790,34 @@
       <c r="F5">
         <v>20893</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="K5">
+        <v>60</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>3.2646856957043697</v>
+      </c>
+      <c r="N5">
+        <v>60</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="4"/>
+        <v>2.9537499999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1177,8 +2836,34 @@
       <c r="F6">
         <v>3957</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>520.4119982655925</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>4.8615328017645232E-4</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>0.2654101191154522</v>
+      </c>
+      <c r="K6">
+        <v>80</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>6.2116857175417035</v>
+      </c>
+      <c r="N6">
+        <v>80</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>5.64975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1197,8 +2882,34 @@
       <c r="F7">
         <v>4053</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>520.4119982655925</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>4.746239533738487E-4</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0.2654101191154522</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>10.200000000000001</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>8.808250000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1217,8 +2928,34 @@
       <c r="F8">
         <v>4267</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>520.4119982655925</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>4.4964374530154087E-4</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0.2654101191154522</v>
+      </c>
+      <c r="K8">
+        <v>150</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>24.970647197663947</v>
+      </c>
+      <c r="N8">
+        <v>150</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>24.074000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1237,8 +2974,34 @@
       <c r="F9">
         <v>4038</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>520.4119982655925</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>4.7654550784094929E-4</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0.2654101191154522</v>
+      </c>
+      <c r="K9">
+        <v>200</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>46.941011911545225</v>
+      </c>
+      <c r="N9">
+        <v>200</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>45.528750000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1257,8 +3020,34 @@
       <c r="F10">
         <v>838</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>2563.2959861247396</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>4.6580652662165696E-4</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>1.3072809529236173</v>
+      </c>
+      <c r="K10">
+        <v>250</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>76.434337776421202</v>
+      </c>
+      <c r="N10">
+        <v>250</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>73.335999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1277,8 +3066,34 @@
       <c r="F11">
         <v>809</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>2563.2959861247396</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>4.8258180354354252E-4</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>1.3072809529236173</v>
+      </c>
+      <c r="K11">
+        <v>300</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>113.69986559163252</v>
+      </c>
+      <c r="N11">
+        <v>300</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>111.88074999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1297,8 +3112,34 @@
       <c r="F12">
         <v>856</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>2563.2959861247396</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>4.5566333592470296E-4</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>1.3072809529236173</v>
+      </c>
+      <c r="K12">
+        <v>350</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>158.9406510707835</v>
+      </c>
+      <c r="N12">
+        <v>350</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>155.83724999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1317,8 +3158,34 @@
       <c r="F13">
         <v>851</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>2563.2959861247396</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>4.5878431767761187E-4</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>1.3072809529236173</v>
+      </c>
+      <c r="K13">
+        <v>400</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>212.32809529236175</v>
+      </c>
+      <c r="N13">
+        <v>400</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>205.99275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1337,8 +3204,34 @@
       <c r="F14">
         <v>343</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>6401.344501381117</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>4.5568552034196016E-4</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>3.2646856957043697</v>
+      </c>
+      <c r="K14">
+        <v>450</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>274.01052236014863</v>
+      </c>
+      <c r="N14">
+        <v>450</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>266.15875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1357,8 +3250,34 @@
       <c r="F15">
         <v>360</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>6401.344501381117</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>4.3490863511553548E-4</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>3.2646856957043697</v>
+      </c>
+      <c r="K15">
+        <v>500</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>344.11867555284238</v>
+      </c>
+      <c r="N15">
+        <v>500</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>343.73325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1377,8 +3296,20 @@
       <c r="F16">
         <v>322</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>6401.344501381117</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>4.8630408804405968E-4</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>3.2646856957043697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1397,8 +3328,20 @@
       <c r="F17">
         <v>334</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>6401.344501381117</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>4.6880776364285995E-4</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>3.2646856957043697</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1417,8 +3360,20 @@
       <c r="F18">
         <v>179</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>12179.775916748438</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>4.5895754061560178E-4</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>6.2116857175417035</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1437,8 +3392,20 @@
       <c r="F19">
         <v>177</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>12179.775916748438</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>4.6421215288740833E-4</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>6.2116857175417035</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1457,8 +3424,20 @@
       <c r="F20">
         <v>171</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>12179.775916748438</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>4.803044029698158E-4</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>6.2116857175417035</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1477,8 +3456,20 @@
       <c r="F21">
         <v>182</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>12179.775916748438</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>4.5197875869210872E-4</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>6.2116857175417035</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +3488,20 @@
       <c r="F22">
         <v>107</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>4.7160000000000002E-4</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>10.200000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1517,8 +3520,20 @@
       <c r="F23">
         <v>121</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>4.1615000000000001E-4</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>10.200000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1537,8 +3552,20 @@
       <c r="F24">
         <v>118</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>4.2709999999999997E-4</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>10.200000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1557,8 +3584,20 @@
       <c r="F25">
         <v>112</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>4.4680000000000002E-4</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>10.200000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1577,8 +3616,20 @@
       <c r="F26">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>48962.053328752831</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>5.1852400530536923E-4</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>24.970647197663947</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1597,8 +3648,20 @@
       <c r="F27">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>48962.053328752831</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>4.9673161860059418E-4</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>24.970647197663947</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1617,8 +3680,20 @@
       <c r="F28">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>48962.053328752831</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>4.7708374980022527E-4</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>24.970647197663947</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1637,8 +3712,20 @@
       <c r="F29">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>48962.053328752831</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>4.7440820841472802E-4</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>24.970647197663947</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1657,8 +3744,20 @@
       <c r="F30">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>92041.199826559256</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>5.0242717486453177E-4</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>46.941011911545225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1677,8 +3776,20 @@
       <c r="F31">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>92041.199826559256</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>4.7479824342087413E-4</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>46.941011911545225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1697,8 +3808,20 @@
       <c r="F32">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>92041.199826559256</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>5.0192739867640427E-4</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>46.941011911545225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1717,8 +3840,20 @@
       <c r="F33">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>92041.199826559256</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>4.994719765347344E-4</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>46.941011911545225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1737,8 +3872,20 @@
       <c r="F34">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>149871.25054200235</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>4.8499628672697979E-4</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>76.434337776421202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1757,8 +3904,20 @@
       <c r="F35">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>149871.25054200235</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>4.7751653329898108E-4</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>76.434337776421202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1777,8 +3936,20 @@
       <c r="F36">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>149871.25054200235</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>5.1274677246029539E-4</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>76.434337776421202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1797,8 +3968,20 @@
       <c r="F37">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>149871.25054200235</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>4.8204708867597589E-4</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>76.434337776421202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1817,8 +4000,20 @@
       <c r="F38">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>222940.91292476963</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>4.9710032378577835E-4</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>113.69986559163252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1837,8 +4032,20 @@
       <c r="F39">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>222940.91292476963</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>4.9243092512609278E-4</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>113.69986559163252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1857,8 +4064,20 @@
       <c r="F40">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>222940.91292476963</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>5.0280587142758444E-4</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>113.69986559163252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1877,8 +4096,20 @@
       <c r="F41">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>222940.91292476963</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>5.1502435552843308E-4</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>113.69986559163252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1897,8 +4128,20 @@
       <c r="F42">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>311648.33543290879</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>5.0065083705088255E-4</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>158.9406510707835</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1917,8 +4160,20 @@
       <c r="F43">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>311648.33543290879</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>5.0673140859434245E-4</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="2"/>
+        <v>158.9406510707835</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1937,8 +4192,20 @@
       <c r="F44">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>311648.33543290879</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>5.0038130248114608E-4</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="2"/>
+        <v>158.9406510707835</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1957,8 +4224,20 @@
       <c r="F45">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>311648.33543290879</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>4.9240436271489729E-4</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>158.9406510707835</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1977,8 +4256,20 @@
       <c r="F46">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>416329.59861247399</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>5.0063459502913926E-4</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="2"/>
+        <v>212.32809529236175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1997,8 +4288,20 @@
       <c r="F47">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>416329.59861247399</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>4.9015251541110539E-4</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="2"/>
+        <v>212.32809529236175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -2017,8 +4320,20 @@
       <c r="F48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>416329.59861247399</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>4.9370018534598999E-4</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>212.32809529236175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -2037,8 +4352,20 @@
       <c r="F49">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>416329.59861247399</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>4.9464414897795316E-4</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="2"/>
+        <v>212.32809529236175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -2057,8 +4384,20 @@
       <c r="F50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>537275.53403950704</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>4.9134193402632868E-4</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="2"/>
+        <v>274.01052236014863</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -2077,8 +4416,20 @@
       <c r="F51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>537275.53403950704</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>5.0466656830880764E-4</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="2"/>
+        <v>274.01052236014863</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -2097,8 +4448,20 @@
       <c r="F52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>537275.53403950704</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>4.8937460081825766E-4</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="2"/>
+        <v>274.01052236014863</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -2117,8 +4480,20 @@
       <c r="F53">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>537275.53403950704</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>4.9616069057854806E-4</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="2"/>
+        <v>274.01052236014863</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -2137,8 +4512,20 @@
       <c r="F54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>674742.50108400465</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>5.0862810546044562E-4</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="2"/>
+        <v>344.11867555284238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -2157,8 +4544,20 @@
       <c r="F55">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>674742.50108400465</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>5.3011926686898818E-4</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="2"/>
+        <v>344.11867555284238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -2177,8 +4576,20 @@
       <c r="F56">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>674742.50108400465</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>5.0491113195429962E-4</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="2"/>
+        <v>344.11867555284238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -2197,8 +4608,21 @@
       <c r="F57">
         <v>4</v>
       </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>674742.50108400465</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>4.9405662080636735E-4</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="2"/>
+        <v>344.11867555284238</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>